--- a/output/1Y_P54_KFSDIV.xlsx
+++ b/output/1Y_P54_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.0061</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.835</v>
       </c>
       <c r="C3" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="F3" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="H3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.4216</v>
       </c>
       <c r="C4" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D4" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E4" s="1">
-        <v>1491.6745</v>
+        <v>1488.6903</v>
       </c>
       <c r="F4" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="H4" s="1">
-        <v>21512.3326</v>
+        <v>21426.4224</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21512.3326</v>
+        <v>21426.4224</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.4078</v>
+        <v>13.4346</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0424</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.2404</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E5" s="1">
-        <v>2185.0788</v>
+        <v>2180.7079</v>
       </c>
       <c r="F5" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="H5" s="1">
-        <v>28931.3175</v>
+        <v>28815.6565</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28931.3175</v>
+        <v>28815.6565</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7295</v>
+        <v>13.757</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>537.0028</v>
+        <v>535.9285</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9462.9972</v>
+        <v>-9464.0715</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0819</v>
+        <v>-0.08309999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.382</v>
       </c>
       <c r="C6" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D6" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E6" s="1">
-        <v>2940.343</v>
+        <v>2934.4635</v>
       </c>
       <c r="F6" s="1">
-        <v>813.0452</v>
+        <v>811.4092000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>36407.3271</v>
+        <v>36261.7525</v>
       </c>
       <c r="I6" s="1">
-        <v>537.0028</v>
+        <v>535.9285</v>
       </c>
       <c r="J6" s="1">
-        <v>36944.3299</v>
+        <v>36797.681</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.6039</v>
+        <v>13.6311</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10067.1254</v>
+        <v>-10066.9911</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.051</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.9583</v>
       </c>
       <c r="C7" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D7" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E7" s="1">
-        <v>3753.3882</v>
+        <v>3745.8727</v>
       </c>
       <c r="F7" s="1">
-        <v>841.8526000000001</v>
+        <v>840.1552</v>
       </c>
       <c r="H7" s="1">
-        <v>44884.1418</v>
+        <v>44704.7427</v>
       </c>
       <c r="I7" s="1">
-        <v>469.8775</v>
+        <v>468.9375</v>
       </c>
       <c r="J7" s="1">
-        <v>45354.0193</v>
+        <v>45173.6802</v>
       </c>
       <c r="K7" s="1">
-        <v>50067.1254</v>
+        <v>50066.9911</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3392</v>
+        <v>13.3659</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10067.1254</v>
+        <v>-10066.9911</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0339</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>12.2036</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E8" s="1">
-        <v>4595.2407</v>
+        <v>4586.0278</v>
       </c>
       <c r="F8" s="1">
-        <v>824.9308</v>
+        <v>823.2670000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>56078.4797</v>
+        <v>55854.15</v>
       </c>
       <c r="I8" s="1">
-        <v>402.7521</v>
+        <v>401.9464</v>
       </c>
       <c r="J8" s="1">
-        <v>56481.2318</v>
+        <v>56256.0964</v>
       </c>
       <c r="K8" s="1">
-        <v>60134.2507</v>
+        <v>60133.9821</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0862</v>
+        <v>13.1124</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1351.2197</v>
+        <v>1348.5142</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8715.9056</v>
+        <v>-8718.4769</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0204</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E9" s="1">
-        <v>5420.1715</v>
+        <v>5409.2948</v>
       </c>
       <c r="F9" s="1">
-        <v>800.5025000000001</v>
+        <v>798.848</v>
       </c>
       <c r="H9" s="1">
-        <v>69993.92690000001</v>
+        <v>69713.9096</v>
       </c>
       <c r="I9" s="1">
-        <v>1686.8465</v>
+        <v>1683.4695</v>
       </c>
       <c r="J9" s="1">
-        <v>71680.77340000001</v>
+        <v>71397.37910000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70201.37609999999</v>
+        <v>70200.97319999999</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9519</v>
+        <v>12.9778</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10337.3693</v>
+        <v>-10336.6939</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07820000000000001</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.4338</v>
       </c>
       <c r="C10" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D10" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E10" s="1">
-        <v>6220.674</v>
+        <v>6208.1428</v>
       </c>
       <c r="F10" s="1">
-        <v>769.5045</v>
+        <v>767.9165</v>
       </c>
       <c r="H10" s="1">
-        <v>83567.2908</v>
+        <v>83231.95</v>
       </c>
       <c r="I10" s="1">
-        <v>1349.4772</v>
+        <v>1346.7756</v>
       </c>
       <c r="J10" s="1">
-        <v>84916.768</v>
+        <v>84578.72560000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80538.7454</v>
+        <v>80537.66710000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9469</v>
+        <v>12.9729</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10337.3693</v>
+        <v>-10336.6939</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0396</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>12.9657</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E11" s="1">
-        <v>6990.1785</v>
+        <v>6976.0593</v>
       </c>
       <c r="F11" s="1">
-        <v>797.2859</v>
+        <v>795.6383</v>
       </c>
       <c r="H11" s="1">
-        <v>90632.5575</v>
+        <v>90268.8126</v>
       </c>
       <c r="I11" s="1">
-        <v>1012.1079</v>
+        <v>1010.0817</v>
       </c>
       <c r="J11" s="1">
-        <v>91644.6654</v>
+        <v>91278.8943</v>
       </c>
       <c r="K11" s="1">
-        <v>90876.11470000001</v>
+        <v>90874.361</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0005</v>
+        <v>13.0266</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1679.582</v>
+        <v>1676.1986</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8657.7873</v>
+        <v>-8660.4953</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0345</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.3568</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E12" s="1">
-        <v>7787.4644</v>
+        <v>7771.6976</v>
       </c>
       <c r="F12" s="1">
-        <v>836.8142</v>
+        <v>834.9617</v>
       </c>
       <c r="H12" s="1">
-        <v>104015.6042</v>
+        <v>103597.5065</v>
       </c>
       <c r="I12" s="1">
-        <v>2354.3206</v>
+        <v>2349.5864</v>
       </c>
       <c r="J12" s="1">
-        <v>106369.9247</v>
+        <v>105947.0929</v>
       </c>
       <c r="K12" s="1">
-        <v>101213.484</v>
+        <v>101211.0549</v>
       </c>
       <c r="L12" s="1">
-        <v>12.997</v>
+        <v>13.023</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11177.1603</v>
+        <v>-11174.7932</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0465</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.2487</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E13" s="1">
-        <v>8624.2786</v>
+        <v>8606.659299999999</v>
       </c>
       <c r="F13" s="1">
-        <v>843.6420000000001</v>
+        <v>841.7796</v>
       </c>
       <c r="H13" s="1">
-        <v>114260.4799</v>
+        <v>113798.9707</v>
       </c>
       <c r="I13" s="1">
-        <v>1177.1603</v>
+        <v>1174.7932</v>
       </c>
       <c r="J13" s="1">
-        <v>115437.6402</v>
+        <v>114973.7639</v>
       </c>
       <c r="K13" s="1">
-        <v>112390.6442</v>
+        <v>112385.8481</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0319</v>
+        <v>13.058</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11177.1603</v>
+        <v>-11174.7932</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.008</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.3991</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E14" s="1">
-        <v>9467.920599999999</v>
+        <v>9448.439</v>
       </c>
       <c r="F14" s="1">
-        <v>-9467.920599999999</v>
+        <v>-9448.439</v>
       </c>
       <c r="H14" s="1">
-        <v>126861.6155</v>
+        <v>126347.3602</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126861.6155</v>
+        <v>126347.3602</v>
       </c>
       <c r="K14" s="1">
-        <v>123567.8045</v>
+        <v>123560.6412</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0512</v>
+        <v>13.0774</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3104.7403</v>
+        <v>3098.3974</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129966.3558</v>
+        <v>129445.7576</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0114</v>
+        <v>0.011</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.0061</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.835</v>
       </c>
       <c r="C3" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="F3" s="1">
-        <v>676.739</v>
+        <v>681.179</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9362.6837</v>
+        <v>-9442.9797</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.4216</v>
       </c>
       <c r="C4" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D4" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E4" s="1">
-        <v>1445.609</v>
+        <v>1448.5091</v>
       </c>
       <c r="F4" s="1">
-        <v>634.6041</v>
+        <v>635.8664</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20847.9942</v>
+        <v>20848.1021</v>
       </c>
       <c r="I4" s="1">
-        <v>637.3163</v>
+        <v>557.0203</v>
       </c>
       <c r="J4" s="1">
-        <v>21485.3106</v>
+        <v>21405.1224</v>
       </c>
       <c r="K4" s="1">
-        <v>19362.6837</v>
+        <v>19442.9797</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3941</v>
+        <v>13.4228</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9152.005800000001</v>
+        <v>-9188.5874</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0411</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.2404</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E5" s="1">
-        <v>2080.213</v>
+        <v>2084.3755</v>
       </c>
       <c r="F5" s="1">
-        <v>867.4444</v>
+        <v>856.902</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27542.8524</v>
+        <v>27542.7297</v>
       </c>
       <c r="I5" s="1">
-        <v>1485.3106</v>
+        <v>1368.4329</v>
       </c>
       <c r="J5" s="1">
-        <v>29028.1629</v>
+        <v>28911.1626</v>
       </c>
       <c r="K5" s="1">
-        <v>28514.6894</v>
+        <v>28631.5671</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7076</v>
+        <v>13.7363</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>520.4192</v>
+        <v>521.4633</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10964.8913</v>
+        <v>-10846.9696</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.078</v>
+        <v>-0.0794</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.382</v>
       </c>
       <c r="C6" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D6" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E6" s="1">
-        <v>2947.6574</v>
+        <v>2941.2775</v>
       </c>
       <c r="F6" s="1">
-        <v>849.6543</v>
+        <v>848.04</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>36497.8938</v>
+        <v>36345.9543</v>
       </c>
       <c r="I6" s="1">
-        <v>520.4192</v>
+        <v>521.4633</v>
       </c>
       <c r="J6" s="1">
-        <v>37018.3131</v>
+        <v>36867.4176</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5701</v>
+        <v>13.5995</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10520.4192</v>
+        <v>-10521.4633</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0515</v>
+        <v>-0.0525</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.9583</v>
       </c>
       <c r="C7" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D7" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E7" s="1">
-        <v>3797.3117</v>
+        <v>3789.3176</v>
       </c>
       <c r="F7" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>45409.3921</v>
+        <v>45223.2314</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45409.3921</v>
+        <v>45223.2314</v>
       </c>
       <c r="K7" s="1">
-        <v>50520.4192</v>
+        <v>50521.4633</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3043</v>
+        <v>13.3326</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0342</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>12.2036</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E8" s="1">
-        <v>4633.5509</v>
+        <v>4623.8819</v>
       </c>
       <c r="F8" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>56546.0022</v>
+        <v>56315.182</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56546.0022</v>
+        <v>56315.182</v>
       </c>
       <c r="K8" s="1">
-        <v>60520.4192</v>
+        <v>60521.4633</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0613</v>
+        <v>13.0889</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1367.0322</v>
+        <v>1364.1543</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8632.9678</v>
+        <v>-8635.8457</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0205</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E9" s="1">
-        <v>5452.9813</v>
+        <v>5441.6704</v>
       </c>
       <c r="F9" s="1">
-        <v>742.0379</v>
+        <v>765.7506</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70417.6189</v>
+        <v>70131.15979999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1367.0322</v>
+        <v>1364.1543</v>
       </c>
       <c r="J9" s="1">
-        <v>71784.6511</v>
+        <v>71495.3141</v>
       </c>
       <c r="K9" s="1">
-        <v>70520.4192</v>
+        <v>70521.4633</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9325</v>
+        <v>12.9595</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9582.381100000001</v>
+        <v>-9908.4295</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.4338</v>
       </c>
       <c r="C10" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D10" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E10" s="1">
-        <v>6195.0192</v>
+        <v>6207.421</v>
       </c>
       <c r="F10" s="1">
-        <v>504.4999</v>
+        <v>505.5403</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>83222.649</v>
+        <v>83222.27220000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1784.6511</v>
+        <v>1455.7248</v>
       </c>
       <c r="J10" s="1">
-        <v>85007.3</v>
+        <v>84677.99709999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80102.80039999999</v>
+        <v>80429.8928</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9302</v>
+        <v>12.9571</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6777.351</v>
+        <v>-6804.9258</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0394</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>12.9657</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E11" s="1">
-        <v>6699.5191</v>
+        <v>6712.9612</v>
       </c>
       <c r="F11" s="1">
-        <v>1013.1381</v>
+        <v>1015.1335</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>86863.95510000001</v>
+        <v>86864.37579999999</v>
       </c>
       <c r="I11" s="1">
-        <v>5007.3</v>
+        <v>4650.799</v>
       </c>
       <c r="J11" s="1">
-        <v>91871.25509999999</v>
+        <v>91515.17479999999</v>
       </c>
       <c r="K11" s="1">
-        <v>86880.1514</v>
+        <v>87234.8186</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9681</v>
+        <v>12.995</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1672.6552</v>
+        <v>1676.0037</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11463.3897</v>
+        <v>-11512.306</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.033</v>
+        <v>-0.0334</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.3568</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E12" s="1">
-        <v>7712.6572</v>
+        <v>7728.0947</v>
       </c>
       <c r="F12" s="1">
-        <v>522.8483</v>
+        <v>523.9064</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103016.4202</v>
+        <v>103016.2754</v>
       </c>
       <c r="I12" s="1">
-        <v>3543.9103</v>
+        <v>3138.493</v>
       </c>
       <c r="J12" s="1">
-        <v>106560.3306</v>
+        <v>106154.7684</v>
       </c>
       <c r="K12" s="1">
-        <v>100016.1963</v>
+        <v>100423.1282</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9678</v>
+        <v>12.9946</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6983.5798</v>
+        <v>-7011.7536</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.046</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.2487</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E13" s="1">
-        <v>8235.505499999999</v>
+        <v>8252.001099999999</v>
       </c>
       <c r="F13" s="1">
-        <v>821.9869</v>
+        <v>823.6444</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>109109.7419</v>
+        <v>109109.6091</v>
       </c>
       <c r="I13" s="1">
-        <v>6560.3306</v>
+        <v>6126.7394</v>
       </c>
       <c r="J13" s="1">
-        <v>115670.0724</v>
+        <v>115236.3485</v>
       </c>
       <c r="K13" s="1">
-        <v>106999.776</v>
+        <v>107434.8819</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9925</v>
+        <v>13.0193</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10890.2581</v>
+        <v>-10934.0441</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0076</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.3991</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E14" s="1">
-        <v>9057.492399999999</v>
+        <v>9075.645500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9057.492399999999</v>
+        <v>-9075.645500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121362.2469</v>
+        <v>121362.2544</v>
       </c>
       <c r="I14" s="1">
-        <v>5670.0724</v>
+        <v>5192.6953</v>
       </c>
       <c r="J14" s="1">
-        <v>127032.3193</v>
+        <v>126554.9497</v>
       </c>
       <c r="K14" s="1">
-        <v>117890.0342</v>
+        <v>118368.9259</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0157</v>
+        <v>13.0425</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2964.782</v>
+        <v>2970.7204</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124327.0288</v>
+        <v>124332.9748</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0108</v>
+        <v>0.0105</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.0061</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.835</v>
       </c>
       <c r="C3" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="F3" s="1">
-        <v>680.353</v>
+        <v>684.8002</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9412.6837</v>
+        <v>-9493.1803</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.4216</v>
       </c>
       <c r="C4" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D4" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E4" s="1">
-        <v>1449.223</v>
+        <v>1452.1304</v>
       </c>
       <c r="F4" s="1">
-        <v>641.4084</v>
+        <v>642.6844</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20900.1142</v>
+        <v>20900.2223</v>
       </c>
       <c r="I4" s="1">
-        <v>587.3163</v>
+        <v>506.8197</v>
       </c>
       <c r="J4" s="1">
-        <v>21487.4305</v>
+        <v>21407.042</v>
       </c>
       <c r="K4" s="1">
-        <v>19412.6837</v>
+        <v>19493.1803</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3952</v>
+        <v>13.4238</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9250.1358</v>
+        <v>-9287.110500000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0412</v>
+        <v>0.0394</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.2404</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E5" s="1">
-        <v>2090.6314</v>
+        <v>2094.8148</v>
       </c>
       <c r="F5" s="1">
-        <v>856.2566</v>
+        <v>845.6917999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27680.7962</v>
+        <v>27680.6729</v>
       </c>
       <c r="I5" s="1">
-        <v>1337.1805</v>
+        <v>1219.7091</v>
       </c>
       <c r="J5" s="1">
-        <v>29017.9767</v>
+        <v>28900.382</v>
       </c>
       <c r="K5" s="1">
-        <v>28662.8195</v>
+        <v>28780.2909</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7101</v>
+        <v>13.7388</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>521.7203</v>
+        <v>522.7669</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10815.4603</v>
+        <v>-10696.9422</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0784</v>
+        <v>-0.0798</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.382</v>
       </c>
       <c r="C6" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D6" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E6" s="1">
-        <v>2946.8881</v>
+        <v>2940.5066</v>
       </c>
       <c r="F6" s="1">
-        <v>849.7594</v>
+        <v>848.1451</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>36488.368</v>
+        <v>36336.4283</v>
       </c>
       <c r="I6" s="1">
-        <v>521.7203</v>
+        <v>522.7669</v>
       </c>
       <c r="J6" s="1">
-        <v>37010.0883</v>
+        <v>36859.1953</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5736</v>
+        <v>13.6031</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10521.7203</v>
+        <v>-10522.7669</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0515</v>
+        <v>-0.0525</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.9583</v>
       </c>
       <c r="C7" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D7" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E7" s="1">
-        <v>3796.6474</v>
+        <v>3788.6517</v>
       </c>
       <c r="F7" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>45401.4488</v>
+        <v>45215.2853</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45401.4488</v>
+        <v>45215.2853</v>
       </c>
       <c r="K7" s="1">
-        <v>50521.7203</v>
+        <v>50522.7669</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3069</v>
+        <v>13.3353</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0342</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>12.2036</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E8" s="1">
-        <v>4632.8867</v>
+        <v>4623.2161</v>
       </c>
       <c r="F8" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>56537.8959</v>
+        <v>56307.073</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56537.8959</v>
+        <v>56307.073</v>
       </c>
       <c r="K8" s="1">
-        <v>60521.7203</v>
+        <v>60522.7669</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0635</v>
+        <v>13.0911</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1366.7931</v>
+        <v>1363.9146</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8633.206899999999</v>
+        <v>-8636.0854</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0205</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E9" s="1">
-        <v>5452.317</v>
+        <v>5441.0046</v>
       </c>
       <c r="F9" s="1">
-        <v>852.206</v>
+        <v>876.1394</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70409.04090000001</v>
+        <v>70122.579</v>
       </c>
       <c r="I9" s="1">
-        <v>1366.7931</v>
+        <v>1363.9146</v>
       </c>
       <c r="J9" s="1">
-        <v>71775.834</v>
+        <v>71486.4936</v>
       </c>
       <c r="K9" s="1">
-        <v>70521.7203</v>
+        <v>70522.7669</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9343</v>
+        <v>12.9614</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11005.0469</v>
+        <v>-11336.8053</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.4338</v>
       </c>
       <c r="C10" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D10" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E10" s="1">
-        <v>6304.523</v>
+        <v>6317.144</v>
       </c>
       <c r="F10" s="1">
-        <v>530.5615</v>
+        <v>531.6547</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84693.7007</v>
+        <v>84693.3173</v>
       </c>
       <c r="I10" s="1">
-        <v>361.7462</v>
+        <v>27.1093</v>
       </c>
       <c r="J10" s="1">
-        <v>85055.4469</v>
+        <v>84720.42660000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81526.7672</v>
+        <v>81859.5722</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9315</v>
+        <v>12.9583</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7127.4576</v>
+        <v>-7156.444</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0401</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>12.9657</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E11" s="1">
-        <v>6835.0845</v>
+        <v>6848.7986</v>
       </c>
       <c r="F11" s="1">
-        <v>1020.7153</v>
+        <v>990.6837</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88621.65519999999</v>
+        <v>88622.0845</v>
       </c>
       <c r="I11" s="1">
-        <v>3234.2886</v>
+        <v>2870.6653</v>
       </c>
       <c r="J11" s="1">
-        <v>91855.94379999999</v>
+        <v>91492.7497</v>
       </c>
       <c r="K11" s="1">
-        <v>88654.2248</v>
+        <v>89016.0163</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9705</v>
+        <v>12.9973</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1702.2212</v>
+        <v>1705.6289</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11532.0674</v>
+        <v>-11165.0364</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0337</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.3568</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E12" s="1">
-        <v>7855.7998</v>
+        <v>7839.4823</v>
       </c>
       <c r="F12" s="1">
-        <v>588.7127</v>
+        <v>621.9444999999999</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>104928.3471</v>
+        <v>104501.0832</v>
       </c>
       <c r="I12" s="1">
-        <v>1702.2212</v>
+        <v>1705.6289</v>
       </c>
       <c r="J12" s="1">
-        <v>106630.5683</v>
+        <v>106206.7121</v>
       </c>
       <c r="K12" s="1">
-        <v>101888.5133</v>
+        <v>101886.6816</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9698</v>
+        <v>12.9966</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7863.3183</v>
+        <v>-8323.8562</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0469</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.2487</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E13" s="1">
-        <v>8444.5126</v>
+        <v>8461.426799999999</v>
       </c>
       <c r="F13" s="1">
-        <v>866.2593000000001</v>
+        <v>868.0058</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111878.8136</v>
+        <v>111878.6775</v>
       </c>
       <c r="I13" s="1">
-        <v>3838.9029</v>
+        <v>3381.7726</v>
       </c>
       <c r="J13" s="1">
-        <v>115717.7165</v>
+        <v>115260.4501</v>
       </c>
       <c r="K13" s="1">
-        <v>109751.8316</v>
+        <v>110210.5378</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9968</v>
+        <v>13.0251</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11476.8101</v>
+        <v>-11522.9506</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0078</v>
+        <v>-0.0081</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>13.3991</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E14" s="1">
-        <v>9310.7719</v>
+        <v>9329.4326</v>
       </c>
       <c r="F14" s="1">
-        <v>-9310.7719</v>
+        <v>-9329.4326</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124755.9638</v>
+        <v>124755.9716</v>
       </c>
       <c r="I14" s="1">
-        <v>2362.0928</v>
+        <v>1858.8221</v>
       </c>
       <c r="J14" s="1">
-        <v>127118.0566</v>
+        <v>126614.7936</v>
       </c>
       <c r="K14" s="1">
-        <v>121228.6418</v>
+        <v>121733.4884</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0203</v>
+        <v>13.0483</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3040.0245</v>
+        <v>3046.1136</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127795.9883</v>
+        <v>127802.0852</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0111</v>
+        <v>0.0108</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.0061</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.835</v>
       </c>
       <c r="C3" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="F3" s="1">
-        <v>683.967</v>
+        <v>688.4215</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9462.6837</v>
+        <v>-9543.380999999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.4216</v>
       </c>
       <c r="C4" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D4" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E4" s="1">
-        <v>1452.837</v>
+        <v>1455.7517</v>
       </c>
       <c r="F4" s="1">
-        <v>648.2474999999999</v>
+        <v>649.5371</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20952.2342</v>
+        <v>20952.3426</v>
       </c>
       <c r="I4" s="1">
-        <v>537.3163</v>
+        <v>456.619</v>
       </c>
       <c r="J4" s="1">
-        <v>21489.5505</v>
+        <v>21408.9616</v>
       </c>
       <c r="K4" s="1">
-        <v>19462.6837</v>
+        <v>19543.381</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3963</v>
+        <v>13.4249</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9348.765799999999</v>
+        <v>-9386.135700000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0413</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.2404</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E5" s="1">
-        <v>2101.0845</v>
+        <v>2105.2888</v>
       </c>
       <c r="F5" s="1">
-        <v>845.0312</v>
+        <v>834.4439</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27819.199</v>
+        <v>27819.0751</v>
       </c>
       <c r="I5" s="1">
-        <v>1188.5505</v>
+        <v>1070.4834</v>
       </c>
       <c r="J5" s="1">
-        <v>29007.7495</v>
+        <v>28889.5584</v>
       </c>
       <c r="K5" s="1">
-        <v>28811.4495</v>
+        <v>28929.5166</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7127</v>
+        <v>13.7414</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>523.0213</v>
+        <v>524.0706</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10665.5292</v>
+        <v>-10546.4128</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0788</v>
+        <v>-0.08019999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.382</v>
       </c>
       <c r="C6" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D6" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E6" s="1">
-        <v>2946.1156</v>
+        <v>2939.7326</v>
       </c>
       <c r="F6" s="1">
-        <v>849.8644</v>
+        <v>848.2501999999999</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>36478.8039</v>
+        <v>36326.864</v>
       </c>
       <c r="I6" s="1">
-        <v>523.0213</v>
+        <v>524.0706</v>
       </c>
       <c r="J6" s="1">
-        <v>37001.8252</v>
+        <v>36850.9346</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5772</v>
+        <v>13.6067</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10523.0213</v>
+        <v>-10524.0706</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0514</v>
+        <v>-0.0524</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.9583</v>
       </c>
       <c r="C7" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D7" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E7" s="1">
-        <v>3795.9801</v>
+        <v>3787.9828</v>
       </c>
       <c r="F7" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>45393.4684</v>
+        <v>45207.3022</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45393.4684</v>
+        <v>45207.3022</v>
       </c>
       <c r="K7" s="1">
-        <v>50523.0213</v>
+        <v>50524.0706</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3096</v>
+        <v>13.338</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0342</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>12.2036</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E8" s="1">
-        <v>4632.2193</v>
+        <v>4622.5471</v>
       </c>
       <c r="F8" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>56529.7518</v>
+        <v>56298.9261</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56529.7518</v>
+        <v>56298.9261</v>
       </c>
       <c r="K8" s="1">
-        <v>60523.0213</v>
+        <v>60524.0706</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0657</v>
+        <v>13.0932</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1366.5528</v>
+        <v>1363.6738</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8633.447200000001</v>
+        <v>-8636.3262</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0205</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E9" s="1">
-        <v>5451.6497</v>
+        <v>5440.3357</v>
       </c>
       <c r="F9" s="1">
-        <v>880.2002</v>
+        <v>878.2157999999999</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70400.4231</v>
+        <v>70113.9581</v>
       </c>
       <c r="I9" s="1">
-        <v>1366.5528</v>
+        <v>1363.6738</v>
       </c>
       <c r="J9" s="1">
-        <v>71766.9759</v>
+        <v>71477.632</v>
       </c>
       <c r="K9" s="1">
-        <v>70523.02129999999</v>
+        <v>70524.07060000001</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9361</v>
+        <v>12.9632</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11366.5528</v>
+        <v>-11363.6738</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.4338</v>
       </c>
       <c r="C10" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D10" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E10" s="1">
-        <v>6331.8498</v>
+        <v>6318.5515</v>
       </c>
       <c r="F10" s="1">
-        <v>641.9977</v>
+        <v>669.2885</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85060.8042</v>
+        <v>84712.18829999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>85060.8042</v>
+        <v>84712.18829999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81889.5741</v>
+        <v>81887.7444</v>
       </c>
       <c r="L10" s="1">
-        <v>12.933</v>
+        <v>12.9599</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8624.468500000001</v>
+        <v>-9009.0921</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0403</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>12.9657</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E11" s="1">
-        <v>6973.8475</v>
+        <v>6987.84</v>
       </c>
       <c r="F11" s="1">
-        <v>877.3558</v>
+        <v>845.9946</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>90420.8147</v>
+        <v>90421.25260000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1375.5315</v>
+        <v>990.9079</v>
       </c>
       <c r="J11" s="1">
-        <v>91796.3462</v>
+        <v>91412.1605</v>
       </c>
       <c r="K11" s="1">
-        <v>90514.0426</v>
+        <v>90896.8365</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9791</v>
+        <v>13.0079</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1709.5995</v>
+        <v>1706.0089</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9665.9321</v>
+        <v>-9284.898999999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0343</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.3568</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E12" s="1">
-        <v>7851.2033</v>
+        <v>7833.8346</v>
       </c>
       <c r="F12" s="1">
-        <v>808.6813</v>
+        <v>843.3955999999999</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104866.9518</v>
+        <v>104425.799</v>
       </c>
       <c r="I12" s="1">
-        <v>1709.5995</v>
+        <v>1706.0089</v>
       </c>
       <c r="J12" s="1">
-        <v>106576.5512</v>
+        <v>106131.8079</v>
       </c>
       <c r="K12" s="1">
-        <v>101889.5741</v>
+        <v>101887.7444</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9776</v>
+        <v>13.0061</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10801.3949</v>
+        <v>-11287.6693</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.047</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.2487</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E13" s="1">
-        <v>8659.884599999999</v>
+        <v>8677.2302</v>
       </c>
       <c r="F13" s="1">
-        <v>823.3415</v>
+        <v>784.7972</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>114732.2131</v>
+        <v>114732.0735</v>
       </c>
       <c r="I13" s="1">
-        <v>908.2046</v>
+        <v>418.3396</v>
       </c>
       <c r="J13" s="1">
-        <v>115640.4177</v>
+        <v>115150.4131</v>
       </c>
       <c r="K13" s="1">
-        <v>112690.969</v>
+        <v>113175.4137</v>
       </c>
       <c r="L13" s="1">
-        <v>13.013</v>
+        <v>13.0428</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10908.2046</v>
+        <v>-10418.3396</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.3991</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E14" s="1">
-        <v>9483.2261</v>
+        <v>9462.027400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9483.2261</v>
+        <v>-9462.027400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127066.6949</v>
+        <v>126529.0692</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>127066.6949</v>
+        <v>126529.0692</v>
       </c>
       <c r="K14" s="1">
-        <v>123599.1736</v>
+        <v>123593.7533</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0335</v>
+        <v>13.0621</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3117.5585</v>
+        <v>3123.8029</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130184.2534</v>
+        <v>129652.8721</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0114</v>
+        <v>0.011</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.0061</v>
       </c>
       <c r="C2" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D2" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.835</v>
       </c>
       <c r="C3" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E3" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="F3" s="1">
-        <v>687.581</v>
+        <v>692.0428000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10637.3163</v>
+        <v>10594.7576</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9512.6837</v>
+        <v>-9593.5816</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.06370000000000001</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.4216</v>
       </c>
       <c r="C4" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D4" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E4" s="1">
-        <v>1456.451</v>
+        <v>1459.3729</v>
       </c>
       <c r="F4" s="1">
-        <v>655.1212</v>
+        <v>656.4245</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21004.3542</v>
+        <v>21004.4629</v>
       </c>
       <c r="I4" s="1">
-        <v>487.3163</v>
+        <v>406.4184</v>
       </c>
       <c r="J4" s="1">
-        <v>21491.6705</v>
+        <v>21410.8813</v>
       </c>
       <c r="K4" s="1">
-        <v>19512.6837</v>
+        <v>19593.5816</v>
       </c>
       <c r="L4" s="1">
-        <v>13.3974</v>
+        <v>13.426</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9447.8958</v>
+        <v>-9485.6628</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0414</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.2404</v>
       </c>
       <c r="C5" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D5" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E5" s="1">
-        <v>2111.5722</v>
+        <v>2115.7975</v>
       </c>
       <c r="F5" s="1">
-        <v>833.7679000000001</v>
+        <v>823.1581</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27958.0609</v>
+        <v>27957.9363</v>
       </c>
       <c r="I5" s="1">
-        <v>1039.4205</v>
+        <v>920.7556</v>
       </c>
       <c r="J5" s="1">
-        <v>28997.4814</v>
+        <v>28878.6919</v>
       </c>
       <c r="K5" s="1">
-        <v>28960.5795</v>
+        <v>29079.2444</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7152</v>
+        <v>13.7439</v>
       </c>
       <c r="M5" s="1">
         <v>0.4</v>
       </c>
       <c r="N5" s="1">
-        <v>524.3224</v>
+        <v>525.3742999999999</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10515.0981</v>
+        <v>-10395.3813</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.07920000000000001</v>
+        <v>-0.0806</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.382</v>
       </c>
       <c r="C6" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D6" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E6" s="1">
-        <v>2945.3401</v>
+        <v>2938.9555</v>
       </c>
       <c r="F6" s="1">
-        <v>849.9695</v>
+        <v>848.3553000000001</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>36469.2014</v>
+        <v>36317.2614</v>
       </c>
       <c r="I6" s="1">
-        <v>524.3224</v>
+        <v>525.3742999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>36993.5238</v>
+        <v>36842.6356</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.5808</v>
+        <v>13.6103</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10524.3224</v>
+        <v>-10525.3743</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0514</v>
+        <v>-0.0524</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.9583</v>
       </c>
       <c r="C7" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D7" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E7" s="1">
-        <v>3795.3096</v>
+        <v>3787.3108</v>
       </c>
       <c r="F7" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>45385.4511</v>
+        <v>45199.2822</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45385.4511</v>
+        <v>45199.2822</v>
       </c>
       <c r="K7" s="1">
-        <v>50524.3224</v>
+        <v>50525.3743</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3123</v>
+        <v>13.3407</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0342</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>12.2036</v>
       </c>
       <c r="C8" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D8" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E8" s="1">
-        <v>4631.5489</v>
+        <v>4621.8751</v>
       </c>
       <c r="F8" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>56521.5701</v>
+        <v>56290.7416</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56521.5701</v>
+        <v>56290.7416</v>
       </c>
       <c r="K8" s="1">
-        <v>60524.3224</v>
+        <v>60525.3743</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0678</v>
+        <v>13.0954</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1366.3115</v>
+        <v>1363.4319</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8633.6885</v>
+        <v>-8636.5681</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0205</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.9136</v>
       </c>
       <c r="C9" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D9" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E9" s="1">
-        <v>5450.9792</v>
+        <v>5439.6637</v>
       </c>
       <c r="F9" s="1">
-        <v>880.1815</v>
+        <v>878.1971</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70391.7653</v>
+        <v>70105.2974</v>
       </c>
       <c r="I9" s="1">
-        <v>1366.3115</v>
+        <v>1363.4319</v>
       </c>
       <c r="J9" s="1">
-        <v>71758.0768</v>
+        <v>71468.72930000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70524.3224</v>
+        <v>70525.3743</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9379</v>
+        <v>12.965</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11366.3115</v>
+        <v>-11363.4319</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.4338</v>
       </c>
       <c r="C10" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D10" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E10" s="1">
-        <v>6331.1607</v>
+        <v>6317.8608</v>
       </c>
       <c r="F10" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85051.5466</v>
+        <v>84702.928</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>85051.5466</v>
+        <v>84702.928</v>
       </c>
       <c r="K10" s="1">
-        <v>81890.6338</v>
+        <v>81888.80620000001</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9345</v>
+        <v>12.9615</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0403</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>12.9657</v>
       </c>
       <c r="C11" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D11" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E11" s="1">
-        <v>7075.5517</v>
+        <v>7060.7642</v>
       </c>
       <c r="F11" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91739.4808</v>
+        <v>91364.8769</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>91739.4808</v>
+        <v>91364.8769</v>
       </c>
       <c r="K11" s="1">
-        <v>91890.6338</v>
+        <v>91888.80620000001</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9871</v>
+        <v>13.014</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1709.4134</v>
+        <v>1705.8224</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8290.586600000001</v>
+        <v>-8294.177600000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0348</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.3568</v>
       </c>
       <c r="C12" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D12" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E12" s="1">
-        <v>7846.8174</v>
+        <v>7830.4864</v>
       </c>
       <c r="F12" s="1">
-        <v>876.6631</v>
+        <v>874.6393</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104808.3711</v>
+        <v>104381.1671</v>
       </c>
       <c r="I12" s="1">
-        <v>1709.4134</v>
+        <v>1705.8224</v>
       </c>
       <c r="J12" s="1">
-        <v>106517.7845</v>
+        <v>106086.9896</v>
       </c>
       <c r="K12" s="1">
-        <v>101890.6338</v>
+        <v>101888.8062</v>
       </c>
       <c r="L12" s="1">
-        <v>12.985</v>
+        <v>13.0118</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11709.4134</v>
+        <v>-11705.8224</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.047</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.2487</v>
       </c>
       <c r="C13" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D13" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E13" s="1">
-        <v>8723.4805</v>
+        <v>8705.125700000001</v>
       </c>
       <c r="F13" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115574.7763</v>
+        <v>115100.9133</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>115574.7763</v>
+        <v>115100.9133</v>
       </c>
       <c r="K13" s="1">
-        <v>113600.0472</v>
+        <v>113594.6286</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0223</v>
+        <v>13.0492</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0081</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.3991</v>
       </c>
       <c r="C14" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D14" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E14" s="1">
-        <v>9478.271500000001</v>
+        <v>9458.41</v>
       </c>
       <c r="F14" s="1">
-        <v>-9478.271500000001</v>
+        <v>-9458.41</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127000.3083</v>
+        <v>126480.6966</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>127000.3083</v>
+        <v>126480.6966</v>
       </c>
       <c r="K14" s="1">
-        <v>123600.0472</v>
+        <v>123594.6286</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0404</v>
+        <v>13.0672</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>3140.453</v>
+        <v>3133.8453</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130140.7613</v>
+        <v>129614.5418</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0114</v>
+        <v>0.011</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0512</v>
+        <v>13.0774</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0157</v>
+        <v>13.0425</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0203</v>
+        <v>13.0483</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0335</v>
+        <v>13.0621</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0404</v>
+        <v>13.0672</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0427</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0929</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0959</v>
+        <v>0.0837</v>
       </c>
       <c r="E4" s="3">
-        <v>0.09669999999999999</v>
+        <v>0.0842</v>
       </c>
       <c r="F4" s="3">
-        <v>0.096</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>0.09520000000000001</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1598</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1651</v>
+        <v>0.164</v>
       </c>
       <c r="D5" s="3">
+        <v>0.1618</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.1626</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
+        <v>0.163</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.1634</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.1638</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.1642</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.1402</v>
       </c>
       <c r="C6" s="4">
-        <v>0.4394</v>
+        <v>0.365</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4649</v>
+        <v>0.3914</v>
       </c>
       <c r="E6" s="4">
-        <v>0.4674</v>
+        <v>0.3927</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4621</v>
+        <v>0.3853</v>
       </c>
       <c r="G6" s="4">
-        <v>0.4561</v>
+        <v>0.3805</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1587</v>
+        <v>0.1502</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1629</v>
+        <v>0.1546</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1632</v>
+        <v>0.1546</v>
       </c>
       <c r="F7" s="3">
-        <v>0.162</v>
+        <v>0.1531</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1607</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6672.5448</v>
+        <v>6659.0386</v>
       </c>
       <c r="D8" s="1">
-        <v>6524.8886</v>
+        <v>6532.3417</v>
       </c>
       <c r="E8" s="1">
-        <v>6630.7591</v>
+        <v>6638.4241</v>
       </c>
       <c r="F8" s="1">
-        <v>6716.7321</v>
+        <v>6717.5562</v>
       </c>
       <c r="G8" s="1">
-        <v>6740.5002</v>
+        <v>6728.4738</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P54_KFSDIV.xlsx
+++ b/output/1Y_P54_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7776.5208</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0225</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.075</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0461</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0241</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
